--- a/biology/Biologie cellulaire et moléculaire/Anastomose_(biologie)/Anastomose_(biologie).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Anastomose_(biologie)/Anastomose_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie cellulaire, l’anastomose du noyau avec le réticulum endoplasmique décrit le fait que la membrane externe du noyau peut fixer les ribosomes. 
 Sur un cliché en microscopie électronique, on ne peut alors plus distinguer la limite entre le réticulum endoplasmique et cette membrane externe du noyau.
